--- a/config.example.xlsx
+++ b/config.example.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="305">
   <si>
     <t>Описание логических устройств, принимаемых ими команд, и выдаваемых ими репортов, а также состояний</t>
   </si>
@@ -38,7 +38,7 @@
   </si>
   <si>
     <t>Название устройства
-в вебинтерфейсе</t>
+в веб-интерфейсе</t>
   </si>
   <si>
     <t>Название устройства
@@ -62,10 +62,10 @@
     <t>WD</t>
   </si>
   <si>
-    <t>расположение в webинтерфейсе</t>
-  </si>
-  <si>
-    <t>есть значение для ввода</t>
+    <t>Расположение в веб-интерфейсе</t>
+  </si>
+  <si>
+    <t>Есть значение для ввода</t>
   </si>
   <si>
     <t>ID
@@ -76,8 +76,7 @@
 команды</t>
   </si>
   <si>
-    <t>Название команды
- в вебинтерфейсе</t>
+    <t>Название команды в веб-интерфейсе</t>
   </si>
   <si>
     <t>Параметр
@@ -92,14 +91,19 @@
 рапорта</t>
   </si>
   <si>
-    <t>Название рапорта
- в вебинтерфейсе</t>
+    <t>Название рапорта в веб-интерфейсе</t>
   </si>
   <si>
     <t>Параметр
  рапорта</t>
   </si>
   <si>
+    <t>Исходное состояние</t>
+  </si>
+  <si>
+    <t>Конечное состояние</t>
+  </si>
+  <si>
     <t>ID
 состояния</t>
   </si>
@@ -109,7 +113,7 @@
   </si>
   <si>
     <t>Название состояния
- в вебинтерфейсе</t>
+ в веб-интерфейсе</t>
   </si>
   <si>
     <t>Дыммашина</t>
@@ -124,32 +128,26 @@
     <t>Off</t>
   </si>
   <si>
-    <t>выключить</t>
-  </si>
-  <si>
     <t>Выключена</t>
   </si>
   <si>
     <t>On</t>
   </si>
   <si>
-    <t>включить</t>
-  </si>
-  <si>
     <t>Включена</t>
   </si>
   <si>
-    <t>Сирена в первой комнате</t>
-  </si>
-  <si>
-    <t>alarm_first</t>
+    <t>Мигалка в коридоре</t>
+  </si>
+  <si>
+    <t>alarm1</t>
   </si>
   <si>
     <t>Дверь  в комнату 
 сканирования</t>
   </si>
   <si>
-    <t>door_to_scanroom</t>
+    <t>door1</t>
   </si>
   <si>
     <t>Close</t>
@@ -174,14 +172,22 @@
 в первой комнате</t>
   </si>
   <si>
-    <t>switch_locker_1</t>
-  </si>
-  <si>
-    <t>Рубильник в первой
-комнате</t>
-  </si>
-  <si>
-    <t>switch_1</t>
+    <t>switch1_lock</t>
+  </si>
+  <si>
+    <t>Рубильник в коридоре</t>
+  </si>
+  <si>
+    <t>switch1</t>
+  </si>
+  <si>
+    <t>Опустить</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>on</t>
   </si>
   <si>
     <t>Поднят</t>
@@ -199,6 +205,15 @@
     <t>Fail</t>
   </si>
   <si>
+    <t>Задеть</t>
+  </si>
+  <si>
+    <t>off, on_ok</t>
+  </si>
+  <si>
+    <t>on_failed</t>
+  </si>
+  <si>
     <t>On_ok</t>
   </si>
   <si>
@@ -217,19 +232,40 @@
     <t>sense_panels</t>
   </si>
   <si>
+    <t>включитьт</t>
+  </si>
+  <si>
+    <t>nm</t>
+  </si>
+  <si>
     <t>Touched</t>
   </si>
   <si>
-    <t>дотронуться</t>
-  </si>
-  <si>
-    <t>N,10</t>
+    <t>Дотронуться</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>touched</t>
   </si>
   <si>
     <t>Touched :N</t>
   </si>
   <si>
     <t>Игроки касаются N сенсоров</t>
+  </si>
+  <si>
+    <t>Свет в коридоре</t>
+  </si>
+  <si>
+    <t>hall_light</t>
+  </si>
+  <si>
+    <t>Выключен</t>
+  </si>
+  <si>
+    <t>Включен</t>
   </si>
   <si>
     <t>Клавиатура в комнате 
@@ -245,7 +281,13 @@
     <t>Success</t>
   </si>
   <si>
-    <t>ввести успешно</t>
+    <t>Ввести верный код</t>
+  </si>
+  <si>
+    <t>not_passed</t>
+  </si>
+  <si>
+    <t>passed</t>
   </si>
   <si>
     <t>Not_passed</t>
@@ -260,8 +302,8 @@
     <t>Успешно введен верный код</t>
   </si>
   <si>
-    <t>Замок, отпирающий ящик
-с клавиатурой</t>
+    <t>Ящик
+с запахами</t>
   </si>
   <si>
     <t>keyboard_locker</t>
@@ -282,18 +324,41 @@
     <t>Scan</t>
   </si>
   <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Завершить</t>
+  </si>
+  <si>
+    <t>scanning</t>
+  </si>
+  <si>
+    <t>idle</t>
+  </si>
+  <si>
     <t>Idle</t>
   </si>
   <si>
-    <t>Выключен</t>
-  </si>
-  <si>
     <t>Scanning</t>
   </si>
   <si>
     <t>Идет сканирование</t>
   </si>
   <si>
+    <t>Мигалка в комнате
+сканирования</t>
+  </si>
+  <si>
+    <t>alarm2</t>
+  </si>
+  <si>
+    <t>Дверь  из комнаты
+сканирования</t>
+  </si>
+  <si>
+    <t>door2</t>
+  </si>
+  <si>
     <t>Подсветка двери в офис</t>
   </si>
   <si>
@@ -324,19 +389,16 @@
     <t>office_door</t>
   </si>
   <si>
-    <t>Сирена в бомбоубежище</t>
-  </si>
-  <si>
-    <t>alarm_bmb</t>
+    <t>Мигалка в бомбоубежище</t>
+  </si>
+  <si>
+    <t>alarm3</t>
   </si>
   <si>
     <t>Свет в бомбоубежище</t>
   </si>
   <si>
-    <t>light_bmb</t>
-  </si>
-  <si>
-    <t>Включен</t>
+    <t>bmb_light</t>
   </si>
   <si>
     <t>Сканер отпечатков пальцев</t>
@@ -345,19 +407,40 @@
     <t>fingers_scanner</t>
   </si>
   <si>
+    <t>Завершить успешно</t>
+  </si>
+  <si>
     <t>Пройдено</t>
   </si>
   <si>
     <t>Не пройдено</t>
   </si>
   <si>
+    <t>Подсветка двери в тир</t>
+  </si>
+  <si>
+    <t>range_door_light</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
     <t>Крыса</t>
   </si>
   <si>
     <t>rat</t>
   </si>
   <si>
-    <t>Uncovered</t>
+    <t>Covered</t>
+  </si>
+  <si>
+    <t>Покрыть</t>
+  </si>
+  <si>
+    <t>not_covered</t>
+  </si>
+  <si>
+    <t>covered</t>
   </si>
   <si>
     <t>Not_covered</t>
@@ -366,22 +449,31 @@
     <t>Не покрыта</t>
   </si>
   <si>
-    <t>Covered</t>
-  </si>
-  <si>
     <t>Покрыта</t>
   </si>
   <si>
     <t>Подсветка шкафа SOS</t>
   </si>
   <si>
-    <t>locker_bmb_backlight</t>
+    <t>sos_locker_backlight</t>
   </si>
   <si>
     <t>Пробки в шкафу SOS</t>
   </si>
   <si>
-    <t>fuses_bmb</t>
+    <t>sos_locker_fuses</t>
+  </si>
+  <si>
+    <t>Installed</t>
+  </si>
+  <si>
+    <t>Вставить</t>
+  </si>
+  <si>
+    <t>removed</t>
+  </si>
+  <si>
+    <t>installed</t>
   </si>
   <si>
     <t>Removed</t>
@@ -390,22 +482,40 @@
     <t>Не вставлены</t>
   </si>
   <si>
-    <t>Installed</t>
-  </si>
-  <si>
     <t>Вставлены</t>
   </si>
   <si>
     <t>Рубильник в шкафу SOS</t>
   </si>
   <si>
-    <t>switch_bmb</t>
+    <t>sos_locker_switch</t>
+  </si>
+  <si>
+    <t>Замок рубильника шкафа SOS</t>
+  </si>
+  <si>
+    <t>sos_locker_switch_lock</t>
+  </si>
+  <si>
+    <t>Замок шкафа SOS</t>
+  </si>
+  <si>
+    <t>sos_locker</t>
+  </si>
+  <si>
+    <t>ССИ в шкафу SOS</t>
+  </si>
+  <si>
+    <t>sos_locker_7SEG</t>
+  </si>
+  <si>
+    <t>Пройти</t>
   </si>
   <si>
     <t>Стробоскопы в офисе</t>
   </si>
   <si>
-    <t>strobo_office</t>
+    <t>office_strobo</t>
   </si>
   <si>
     <t>Выключены</t>
@@ -417,13 +527,55 @@
     <t>Свет в офисе</t>
   </si>
   <si>
-    <t>light_office</t>
-  </si>
-  <si>
-    <t>Сирена в офисе</t>
-  </si>
-  <si>
-    <t>alarm_office</t>
+    <t>office_light</t>
+  </si>
+  <si>
+    <t>Мигалка в офисе</t>
+  </si>
+  <si>
+    <t>alarm4</t>
+  </si>
+  <si>
+    <t>Шкаф с пробками в офисе</t>
+  </si>
+  <si>
+    <t>office_locker</t>
+  </si>
+  <si>
+    <t>Пробки в шкафу в офисе</t>
+  </si>
+  <si>
+    <t>office_fuses</t>
+  </si>
+  <si>
+    <t>Удалить</t>
+  </si>
+  <si>
+    <t>Комп в офисе</t>
+  </si>
+  <si>
+    <t>office_computer</t>
+  </si>
+  <si>
+    <t>Power_connected</t>
+  </si>
+  <si>
+    <t>Включить питание</t>
+  </si>
+  <si>
+    <t>power_disconnected</t>
+  </si>
+  <si>
+    <t>power_connected</t>
+  </si>
+  <si>
+    <t>Power_disconnected</t>
+  </si>
+  <si>
+    <t>Нет питания</t>
+  </si>
+  <si>
+    <t>Есть питание</t>
   </si>
   <si>
     <t>Терминатор1</t>
@@ -432,12 +584,27 @@
     <t>terminator1</t>
   </si>
   <si>
+    <t>Deactivate</t>
+  </si>
+  <si>
+    <t>Уничтожить</t>
+  </si>
+  <si>
+    <t>not_destroyed</t>
+  </si>
+  <si>
+    <t>destroyed</t>
+  </si>
+  <si>
     <t>Not_destroyed</t>
   </si>
   <si>
     <t>Еще не уничтожен</t>
   </si>
   <si>
+    <t>Activate</t>
+  </si>
+  <si>
     <t>Destroyed</t>
   </si>
   <si>
@@ -459,13 +626,13 @@
     <t>Решетка в тире</t>
   </si>
   <si>
-    <t>door_range</t>
+    <t>range_lattice</t>
   </si>
   <si>
     <t>Освещение в тире</t>
   </si>
   <si>
-    <t>light_range</t>
+    <t>range_light</t>
   </si>
   <si>
     <t>Выключено</t>
@@ -474,10 +641,10 @@
     <t>Включено</t>
   </si>
   <si>
-    <t>Сирена в тире</t>
-  </si>
-  <si>
-    <t>alarm_range</t>
+    <t>Мигалка в тире</t>
+  </si>
+  <si>
+    <t>alarm5</t>
   </si>
   <si>
     <t>Игра Соцсеть</t>
@@ -486,46 +653,25 @@
     <t>facebook</t>
   </si>
   <si>
-    <t>Deactivate</t>
-  </si>
-  <si>
     <t>Sleep</t>
   </si>
   <si>
     <t>Показывает черный экран</t>
   </si>
   <si>
-    <t>Activate</t>
-  </si>
-  <si>
     <t>Game</t>
   </si>
   <si>
     <t>Идет игра</t>
   </si>
   <si>
-    <t>Подсветка двери в тир</t>
-  </si>
-  <si>
-    <t>range_door_light</t>
-  </si>
-  <si>
-    <t>Шкаф с пробками в офисе</t>
-  </si>
-  <si>
-    <t>office_locker</t>
-  </si>
-  <si>
-    <t>Пробки в шкафу в офисе</t>
-  </si>
-  <si>
-    <t>fuses_office</t>
-  </si>
-  <si>
     <t>Видеоплеер № 1 (распберри)</t>
   </si>
   <si>
-    <t>video_player_1</t>
+    <t>video_player1</t>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
   </si>
   <si>
     <t>Play</t>
@@ -553,15 +699,18 @@
 Общий</t>
   </si>
   <si>
-    <t>audio_player_1</t>
-  </si>
-  <si>
-    <t>Stop_channel1</t>
+    <t>audio_player1</t>
+  </si>
+  <si>
+    <t>Stop channel1</t>
   </si>
   <si>
     <t>CH1_playback_finished</t>
   </si>
   <si>
+    <t>завершить канал 1</t>
+  </si>
+  <si>
     <t>Ch1_stop_ch2_stop</t>
   </si>
   <si>
@@ -584,6 +733,9 @@
   </si>
   <si>
     <t>CH2_playback_finished</t>
+  </si>
+  <si>
+    <t>завершить канал 2</t>
   </si>
   <si>
     <t>Ch1_stop_ch2_play</t>
@@ -605,24 +757,60 @@
 Первый коридор</t>
   </si>
   <si>
-    <t>audio_player_2</t>
-  </si>
-  <si>
-    <t>Stop channel1</t>
+    <t>audio_player2</t>
   </si>
   <si>
     <t>Аудиоплеер №3
 Комната сканирования</t>
   </si>
   <si>
-    <t>audio_player_3</t>
+    <t>audio_player3</t>
   </si>
   <si>
     <t>Аудиоплеер №4
 Бомбоубежище</t>
   </si>
   <si>
-    <t>audio_player_4</t>
+    <t>audio_player4</t>
+  </si>
+  <si>
+    <t>Игра Машина времени</t>
+  </si>
+  <si>
+    <t>timemachine</t>
+  </si>
+  <si>
+    <t>пройти</t>
+  </si>
+  <si>
+    <t>Планшет в коридоре №1</t>
+  </si>
+  <si>
+    <t>pad1</t>
+  </si>
+  <si>
+    <t>Show_image</t>
+  </si>
+  <si>
+    <t>Показывает фото игрока</t>
+  </si>
+  <si>
+    <t>Планшет в коридоре №2</t>
+  </si>
+  <si>
+    <t>pad2</t>
+  </si>
+  <si>
+    <t>Планшет в коридоре №3</t>
+  </si>
+  <si>
+    <t>pad3</t>
+  </si>
+  <si>
+    <t>Планшет в коридоре №4</t>
+  </si>
+  <si>
+    <t>pad4</t>
   </si>
   <si>
     <t>Как формируется параметр видеоплеера</t>
@@ -653,10 +841,6 @@
   </si>
   <si>
     <t>эмулируется сервером(для тестов)</t>
-  </si>
-  <si>
-    <t>Название устройства
-в веб-интерфейсе</t>
   </si>
   <si>
     <t>Дверь № 1</t>
@@ -792,7 +976,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -837,13 +1021,6 @@
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -977,7 +1154,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1048,10 +1225,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1125,7 +1298,7 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF9C6500"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -1180,10 +1353,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U89"/>
+  <dimension ref="A1:W113"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M6" activeCellId="0" sqref="M6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N18" activeCellId="0" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1198,28 +1371,27 @@
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="20.5714285714286"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="21.2908163265306"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="2" width="17.4234693877551"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="10"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="19.6173469387755"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="2" width="31.280612244898"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="2" width="27.4234693877551"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="12.8622448979592"/>
-    <col collapsed="false" hidden="false" max="21" min="20" style="2" width="27.5765306122449"/>
-    <col collapsed="false" hidden="false" max="1022" min="22" style="2" width="9.14285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.14285714285714"/>
+    <col collapsed="false" hidden="false" max="20" min="17" style="2" width="27.4234693877551"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="12.8622448979592"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="2" width="27.5765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="24" style="2" width="9.14285714285714"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -1231,6 +1403,8 @@
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5"/>
@@ -1257,11 +1431,13 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
@@ -1318,28 +1494,34 @@
       <c r="R3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="T3" s="10" t="s">
         <v>24</v>
       </c>
       <c r="U3" s="11" t="s">
         <v>25</v>
       </c>
+      <c r="V3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" s="12" t="n">
         <v>80</v>
@@ -1351,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="12" t="n">
         <v>1</v>
@@ -1361,24 +1543,24 @@
         <v>0</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>30</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
-      <c r="S4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U4" s="13" t="s">
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="13" t="s">
         <v>31</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1396,23 +1578,23 @@
         <v>1</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="12" t="s">
         <v>33</v>
       </c>
+      <c r="M5" s="12"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
-      <c r="S5" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="U5" s="13" t="s">
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W5" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1427,7 +1609,7 @@
         <v>36</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6" s="12" t="n">
         <v>80</v>
@@ -1439,7 +1621,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="12" t="n">
         <v>1</v>
@@ -1449,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
@@ -1457,17 +1639,19 @@
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
-      <c r="S6" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U6" s="13" t="s">
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W6" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1482,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
@@ -1490,13 +1674,15 @@
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
-      <c r="S7" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="U7" s="13" t="s">
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W7" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1511,7 +1697,7 @@
         <v>38</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" s="12" t="n">
         <v>80</v>
@@ -1523,7 +1709,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="12" t="n">
         <v>1</v>
@@ -1541,17 +1727,19 @@
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
-      <c r="S8" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="13" t="s">
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="U8" s="13" t="s">
+      <c r="W8" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -1574,17 +1762,19 @@
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
-      <c r="S9" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T9" s="13" t="s">
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="U9" s="13" t="s">
+      <c r="W9" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="n">
         <v>4</v>
       </c>
@@ -1595,7 +1785,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10" s="12" t="n">
         <v>80</v>
@@ -1607,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="12" t="n">
         <v>1</v>
@@ -1617,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
@@ -1625,17 +1815,19 @@
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
-      <c r="S10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U10" s="13" t="s">
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W10" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -1650,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
@@ -1658,13 +1850,15 @@
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
-      <c r="S11" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="U11" s="13" t="s">
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W11" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1679,7 +1873,7 @@
         <v>48</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12" s="12" t="n">
         <v>80</v>
@@ -1691,7 +1885,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" s="12" t="n">
         <v>1</v>
@@ -1705,18 +1899,26 @@
         <v>0</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q12" s="12"/>
+        <v>33</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="R12" s="12"/>
-      <c r="S12" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U12" s="13" t="s">
-        <v>49</v>
+      <c r="S12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W12" s="13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1734,22 +1936,20 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
-      <c r="O13" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
-      <c r="S13" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="U13" s="13" t="s">
-        <v>50</v>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W13" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1757,13 +1957,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E14" s="12" t="n">
         <v>80</v>
@@ -1775,7 +1975,7 @@
         <v>5</v>
       </c>
       <c r="H14" s="12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" s="12" t="n">
         <v>1</v>
@@ -1785,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
@@ -1793,18 +1993,26 @@
         <v>0</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q14" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="R14" s="12"/>
-      <c r="S14" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U14" s="13" t="s">
+      <c r="S14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="U14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" s="13" t="s">
         <v>31</v>
+      </c>
+      <c r="W14" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1826,14 +2034,16 @@
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
-      <c r="S15" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T15" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="U15" s="13" t="s">
-        <v>55</v>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="W15" s="13" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1851,7 +2061,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
@@ -1859,28 +2069,30 @@
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
-      <c r="S16" s="13" t="n">
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="T16" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="U16" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V16" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="W16" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="n">
         <v>7</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E17" s="12" t="n">
         <v>80</v>
@@ -1892,222 +2104,248 @@
         <v>6</v>
       </c>
       <c r="H17" s="12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
+      <c r="J17" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="O17" s="12" t="n">
         <v>0</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="R17" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="S17" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="U17" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="n">
+        <v>70</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="U17" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="W17" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F18" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="H18" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W18" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W19" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="14" t="n">
+      <c r="B20" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="14" t="n">
         <v>80</v>
       </c>
-      <c r="F18" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q18" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="R18" s="14"/>
-      <c r="S18" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="U18" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T19" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="U19" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="n">
+      <c r="F20" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q20" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="T20" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="U20" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="W20" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="W21" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="12" t="n">
-        <v>80</v>
-      </c>
-      <c r="F20" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="U20" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T21" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="U21" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>78</v>
+      <c r="B22" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E22" s="12" t="n">
         <v>80</v>
@@ -2116,10 +2354,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" s="12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" s="12" t="n">
         <v>1</v>
@@ -2129,27 +2367,29 @@
         <v>0</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
-      <c r="P22" s="18"/>
+      <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
-      <c r="S22" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="U22" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16"/>
-      <c r="B23" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="W22" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -2158,48 +2398,54 @@
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
+      <c r="K23" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
-      <c r="P23" s="18"/>
+      <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
       <c r="R23" s="12"/>
-      <c r="S23" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T23" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="U23" s="13" t="s">
-        <v>84</v>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="W23" s="13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="n">
-        <v>11</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>85</v>
+      <c r="A24" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E24" s="12" t="n">
         <v>80</v>
       </c>
       <c r="F24" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="G24" s="12" t="n">
-        <v>0</v>
-      </c>
       <c r="H24" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="12" t="n">
         <v>2</v>
@@ -2209,27 +2455,39 @@
         <v>0</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
+      <c r="O24" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q24" s="12" t="s">
+        <v>97</v>
+      </c>
       <c r="R24" s="12"/>
-      <c r="S24" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U24" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
+      <c r="S24" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="T24" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="U24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="W24" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="16"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -2238,44 +2496,60 @@
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
-      <c r="K25" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>87</v>
-      </c>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
       <c r="R25" s="12"/>
-      <c r="S25" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T25" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="U25" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="W25" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F26" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H26" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J26" s="12"/>
       <c r="K26" s="12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
@@ -2283,50 +2557,34 @@
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
-      <c r="S26" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="T26" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U26" s="13" t="s">
-        <v>90</v>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W26" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="n">
-        <v>12</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="12" t="n">
-        <v>80</v>
-      </c>
-      <c r="F27" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G27" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J27" s="12"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
       <c r="K27" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
@@ -2334,32 +2592,52 @@
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
       <c r="R27" s="12"/>
-      <c r="S27" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="U27" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W27" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F28" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H28" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="J28" s="12"/>
       <c r="K28" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
@@ -2367,50 +2645,34 @@
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
       <c r="R28" s="12"/>
-      <c r="S28" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T28" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="U28" s="13" t="s">
-        <v>77</v>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="W28" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="12" t="n">
-        <v>80</v>
-      </c>
-      <c r="F29" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G29" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H29" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="12" t="n">
-        <v>2</v>
-      </c>
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
@@ -2418,32 +2680,52 @@
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
       <c r="R29" s="12"/>
-      <c r="S29" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="U29" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="W29" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="J30" s="12"/>
       <c r="K30" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
@@ -2451,50 +2733,34 @@
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
       <c r="R30" s="12"/>
-      <c r="S30" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T30" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="U30" s="13" t="s">
-        <v>44</v>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W30" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="12" t="n">
-        <v>80</v>
-      </c>
-      <c r="F31" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G31" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H31" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="12" t="n">
-        <v>2</v>
-      </c>
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
@@ -2502,32 +2768,34 @@
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
       <c r="R31" s="12"/>
-      <c r="S31" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U31" s="13" t="s">
-        <v>31</v>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="W31" s="13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="9"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
       <c r="K32" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
@@ -2535,28 +2803,30 @@
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
-      <c r="S32" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T32" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="U32" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="W32" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E33" s="12" t="n">
         <v>80</v>
@@ -2565,10 +2835,10 @@
         <v>2</v>
       </c>
       <c r="G33" s="12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H33" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="12" t="n">
         <v>2</v>
@@ -2578,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
@@ -2586,14 +2856,16 @@
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
-      <c r="S33" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U33" s="13" t="s">
-        <v>82</v>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="W33" s="13" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2611,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
@@ -2619,28 +2891,30 @@
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
-      <c r="S34" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T34" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="U34" s="13" t="s">
-        <v>99</v>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="W34" s="13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E35" s="12" t="n">
         <v>80</v>
@@ -2649,39 +2923,37 @@
         <v>2</v>
       </c>
       <c r="G35" s="12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H35" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="12" t="n">
         <v>2</v>
       </c>
       <c r="J35" s="12"/>
-      <c r="K35" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" s="14" t="s">
-        <v>67</v>
+      <c r="K35" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
-      <c r="O35" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" s="14" t="s">
-        <v>68</v>
-      </c>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
       <c r="R35" s="12"/>
-      <c r="S35" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="U35" s="13" t="s">
-        <v>102</v>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="W35" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2695,76 +2967,84 @@
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
+      <c r="K36" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
       <c r="R36" s="12"/>
-      <c r="S36" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T36" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="U36" s="13" t="s">
-        <v>103</v>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="W36" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E37" s="12" t="n">
         <v>80</v>
       </c>
       <c r="F37" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G37" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G37" s="12" t="n">
-        <v>0</v>
-      </c>
       <c r="H37" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" s="12" t="n">
         <v>2</v>
       </c>
       <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
+      <c r="K37" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
-      <c r="O37" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" s="12" t="s">
-        <v>106</v>
-      </c>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
       <c r="R37" s="12"/>
-      <c r="S37" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="U37" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W37" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="9"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -2775,52 +3055,54 @@
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
+      <c r="K38" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
-      <c r="O38" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P38" s="12" t="s">
-        <v>109</v>
-      </c>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
       <c r="R38" s="12"/>
-      <c r="S38" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T38" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="U38" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W38" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>111</v>
+        <v>17</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E39" s="12" t="n">
         <v>80</v>
       </c>
       <c r="F39" s="12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G39" s="12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H39" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="12" t="n">
         <v>2</v>
@@ -2830,27 +3112,29 @@
         <v>0</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U39" s="13" t="s">
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W39" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="9"/>
-      <c r="B40" s="10"/>
+      <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
@@ -2863,160 +3147,174 @@
         <v>1</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T40" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="U40" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W40" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>113</v>
+        <v>18</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E41" s="12" t="n">
         <v>80</v>
       </c>
       <c r="F41" s="12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G41" s="12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H41" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" s="12" t="n">
         <v>2</v>
       </c>
       <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
+      <c r="K41" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
-      <c r="O41" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q41" s="12"/>
+      <c r="O41" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q41" s="12" t="s">
+        <v>123</v>
+      </c>
       <c r="R41" s="12"/>
-      <c r="S41" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="U41" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S41" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="T41" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="U41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="W41" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="9"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
-      <c r="O42" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P42" s="12" t="s">
-        <v>117</v>
-      </c>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
       <c r="Q42" s="12"/>
       <c r="R42" s="12"/>
-      <c r="S42" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T42" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="U42" s="13" t="s">
-        <v>118</v>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="W42" s="13" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E43" s="12" t="n">
         <v>80</v>
       </c>
       <c r="F43" s="12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G43" s="12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H43" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" s="12" t="n">
         <v>2</v>
       </c>
       <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
+      <c r="K43" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
-      <c r="O43" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
       <c r="Q43" s="12"/>
       <c r="R43" s="12"/>
-      <c r="S43" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U43" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W43" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="12"/>
@@ -3027,566 +3325,574 @@
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
+      <c r="K44" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P44" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="N44" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
       <c r="Q44" s="12"/>
       <c r="R44" s="12"/>
-      <c r="S44" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T44" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="U44" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="n">
-        <v>21</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="12" t="n">
-        <v>80</v>
-      </c>
-      <c r="F45" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="G45" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="W44" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
       <c r="O45" s="12"/>
       <c r="P45" s="12"/>
       <c r="Q45" s="12"/>
       <c r="R45" s="12"/>
-      <c r="S45" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U45" s="13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="W45" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F46" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G46" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="J46" s="12"/>
-      <c r="K46" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L46" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
+      <c r="O46" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q46" s="12" t="s">
+        <v>132</v>
+      </c>
       <c r="R46" s="12"/>
-      <c r="S46" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T46" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="U46" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E47" s="12" t="n">
-        <v>80</v>
-      </c>
-      <c r="F47" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="G47" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H47" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" s="12" t="n">
-        <v>3</v>
-      </c>
+      <c r="S46" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="T46" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="U46" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="W46" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="9"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
       <c r="J47" s="12"/>
-      <c r="K47" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
       <c r="O47" s="12"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="12"/>
       <c r="R47" s="12"/>
-      <c r="S47" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T47" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U47" s="13" t="s">
-        <v>82</v>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="W47" s="13" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
+      <c r="A48" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F48" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G48" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="12" t="n">
+        <v>3</v>
+      </c>
       <c r="J48" s="12"/>
       <c r="K48" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
       <c r="O48" s="12"/>
       <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="12"/>
-      <c r="S48" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T48" s="13" t="s">
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W48" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="U48" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9" t="n">
-        <v>23</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E49" s="12" t="n">
-        <v>80</v>
-      </c>
-      <c r="F49" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="G49" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H49" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" s="12" t="n">
-        <v>3</v>
-      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="9"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
       <c r="J49" s="12"/>
       <c r="K49" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M49" s="12"/>
       <c r="N49" s="12"/>
       <c r="O49" s="12"/>
       <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="12"/>
-      <c r="S49" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U49" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W49" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F50" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G50" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="12" t="n">
+        <v>3</v>
+      </c>
       <c r="J50" s="12"/>
-      <c r="K50" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L50" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
       <c r="M50" s="12"/>
       <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
+      <c r="O50" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q50" s="12" t="s">
+        <v>143</v>
+      </c>
       <c r="R50" s="12"/>
-      <c r="S50" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T50" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="U50" s="13" t="s">
-        <v>34</v>
+      <c r="S50" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="T50" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="U50" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="W50" s="13" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9" t="n">
-        <v>24</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E51" s="12" t="n">
-        <v>80</v>
-      </c>
-      <c r="F51" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="G51" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J51" s="12"/>
-      <c r="K51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" s="14" t="s">
-        <v>68</v>
-      </c>
+      <c r="A51" s="9"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
       <c r="Q51" s="12"/>
       <c r="R51" s="12"/>
-      <c r="S51" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T51" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="U51" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="W51" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F52" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G52" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H52" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="12" t="n">
+        <v>3</v>
+      </c>
       <c r="J52" s="12"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q52" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="R52" s="12"/>
-      <c r="S52" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T52" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="U52" s="13" t="s">
-        <v>134</v>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W52" s="13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E53" s="12" t="n">
-        <v>80</v>
-      </c>
-      <c r="F53" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="G53" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H53" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" s="12" t="n">
-        <v>3</v>
-      </c>
+      <c r="A53" s="9"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
       <c r="J53" s="12"/>
-      <c r="K53" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="M53" s="14"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" s="14" t="s">
-        <v>68</v>
-      </c>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
       <c r="Q53" s="12"/>
       <c r="R53" s="12"/>
-      <c r="S53" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T53" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="U53" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W53" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F54" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G54" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H54" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" s="12" t="n">
+        <v>3</v>
+      </c>
       <c r="J54" s="12"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
+      <c r="K54" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
       <c r="Q54" s="12"/>
       <c r="R54" s="12"/>
-      <c r="S54" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T54" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="U54" s="13" t="s">
-        <v>134</v>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="W54" s="13" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9" t="n">
-        <v>26</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E55" s="12" t="n">
-        <v>80</v>
-      </c>
-      <c r="F55" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="G55" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H55" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" s="12" t="n">
-        <v>3</v>
-      </c>
+      <c r="A55" s="9"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
       <c r="J55" s="12"/>
-      <c r="K55" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P55" s="14" t="s">
-        <v>68</v>
-      </c>
+      <c r="K55" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
       <c r="Q55" s="12"/>
       <c r="R55" s="12"/>
-      <c r="S55" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T55" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="U55" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="9"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="W55" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F56" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G56" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="H56" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" s="12" t="n">
+        <v>3</v>
+      </c>
       <c r="J56" s="12"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="14"/>
-      <c r="P56" s="14"/>
+      <c r="K56" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
       <c r="Q56" s="12"/>
       <c r="R56" s="12"/>
-      <c r="S56" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T56" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="U56" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9" t="n">
-        <v>27</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" s="12" t="n">
-        <v>80</v>
-      </c>
-      <c r="F57" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="G57" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H57" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" s="12" t="n">
-        <v>3</v>
-      </c>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="W56" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
       <c r="J57" s="12"/>
       <c r="K57" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M57" s="12"/>
       <c r="N57" s="12"/>
@@ -3594,116 +3900,146 @@
       <c r="P57" s="12"/>
       <c r="Q57" s="12"/>
       <c r="R57" s="12"/>
-      <c r="S57" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T57" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="U57" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L58" s="12" t="s">
-        <v>42</v>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="W57" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F58" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G58" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H58" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J58" s="12"/>
+      <c r="K58" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="M58" s="12"/>
       <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="12"/>
+      <c r="O58" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q58" s="12" t="s">
+        <v>157</v>
+      </c>
       <c r="R58" s="12"/>
-      <c r="S58" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T58" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="U58" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9" t="n">
-        <v>28</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E59" s="12" t="n">
-        <v>80</v>
-      </c>
-      <c r="F59" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="G59" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="H59" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="S58" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="T58" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="U58" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="W58" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
       <c r="M59" s="12"/>
       <c r="N59" s="12"/>
-      <c r="O59" s="12"/>
-      <c r="P59" s="12"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="14"/>
       <c r="Q59" s="12"/>
       <c r="R59" s="12"/>
-      <c r="S59" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T59" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U59" s="13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="W59" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" s="12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F60" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G60" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" s="12" t="n">
+        <v>3</v>
+      </c>
       <c r="J60" s="12"/>
       <c r="K60" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M60" s="12"/>
       <c r="N60" s="12"/>
@@ -3711,50 +4047,34 @@
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
       <c r="R60" s="12"/>
-      <c r="S60" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T60" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="U60" s="13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9" t="n">
-        <v>29</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E61" s="12" t="n">
-        <v>80</v>
-      </c>
-      <c r="F61" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="G61" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="H61" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" s="12" t="n">
-        <v>3</v>
-      </c>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W60" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
       <c r="J61" s="12"/>
       <c r="K61" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M61" s="12"/>
       <c r="N61" s="12"/>
@@ -3762,32 +4082,52 @@
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
       <c r="R61" s="12"/>
-      <c r="S61" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T61" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U61" s="13" t="s">
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W61" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E62" s="12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F62" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G62" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" s="12" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L62" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="M62" s="12"/>
       <c r="N62" s="12"/>
@@ -3795,50 +4135,34 @@
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
       <c r="R62" s="12"/>
-      <c r="S62" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T62" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="U62" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E63" s="12" t="n">
-        <v>80</v>
-      </c>
-      <c r="F63" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="G63" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H63" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" s="12" t="n">
-        <v>3</v>
-      </c>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W62" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="9"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
       <c r="J63" s="12"/>
       <c r="K63" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" s="12" t="s">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c r="M63" s="12"/>
       <c r="N63" s="12"/>
@@ -3846,32 +4170,52 @@
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
       <c r="R63" s="12"/>
-      <c r="S63" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T63" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="U63" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="9"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W63" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="9" t="n">
+        <v>26</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64" s="12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F64" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G64" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J64" s="12"/>
       <c r="K64" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" s="12" t="s">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="M64" s="12"/>
       <c r="N64" s="12"/>
@@ -3879,50 +4223,34 @@
       <c r="P64" s="12"/>
       <c r="Q64" s="12"/>
       <c r="R64" s="12"/>
-      <c r="S64" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T64" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="U64" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="9" t="n">
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E65" s="12" t="n">
-        <v>80</v>
-      </c>
-      <c r="F65" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G65" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="H65" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" s="12" t="n">
-        <v>4</v>
-      </c>
+      <c r="W64" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="9"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
       <c r="J65" s="12"/>
       <c r="K65" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M65" s="12"/>
       <c r="N65" s="12"/>
@@ -3930,32 +4258,52 @@
       <c r="P65" s="12"/>
       <c r="Q65" s="12"/>
       <c r="R65" s="12"/>
-      <c r="S65" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T65" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="U65" s="13" t="s">
-        <v>31</v>
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W65" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="9"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
+      <c r="A66" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E66" s="12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F66" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G66" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H66" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="12" t="n">
+        <v>3</v>
+      </c>
       <c r="J66" s="12"/>
       <c r="K66" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" s="12" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="M66" s="12"/>
       <c r="N66" s="12"/>
@@ -3963,32 +4311,34 @@
       <c r="P66" s="12"/>
       <c r="Q66" s="12"/>
       <c r="R66" s="12"/>
-      <c r="S66" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T66" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="U66" s="13" t="s">
-        <v>88</v>
+      <c r="S66" s="12"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="W66" s="13" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="9"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
       <c r="K67" s="12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L67" s="12" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="M67" s="12"/>
       <c r="N67" s="12"/>
@@ -3996,28 +4346,30 @@
       <c r="P67" s="12"/>
       <c r="Q67" s="12"/>
       <c r="R67" s="12"/>
-      <c r="S67" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="T67" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U67" s="13" t="s">
-        <v>90</v>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="W67" s="13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E68" s="12" t="n">
         <v>80</v>
@@ -4026,35 +4378,43 @@
         <v>4</v>
       </c>
       <c r="G68" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H68" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="H68" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" s="12" t="n">
-        <v>4</v>
-      </c>
       <c r="J68" s="12"/>
-      <c r="K68" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
       <c r="M68" s="12"/>
       <c r="N68" s="12"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="12"/>
-      <c r="Q68" s="12"/>
+      <c r="O68" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q68" s="12" t="s">
+        <v>170</v>
+      </c>
       <c r="R68" s="12"/>
-      <c r="S68" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T68" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="U68" s="13" t="s">
-        <v>76</v>
+      <c r="S68" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="T68" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="U68" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V68" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="W68" s="13" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4068,40 +4428,38 @@
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
       <c r="J69" s="12"/>
-      <c r="K69" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L69" s="12" t="s">
-        <v>42</v>
-      </c>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
       <c r="M69" s="12"/>
       <c r="N69" s="12"/>
       <c r="O69" s="12"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="12"/>
       <c r="R69" s="12"/>
-      <c r="S69" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T69" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="U69" s="13" t="s">
-        <v>77</v>
+      <c r="S69" s="12"/>
+      <c r="T69" s="12"/>
+      <c r="U69" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="W69" s="13" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="9" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E70" s="12" t="n">
         <v>80</v>
@@ -4110,13 +4468,13 @@
         <v>4</v>
       </c>
       <c r="G70" s="12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H70" s="12" t="n">
         <v>0</v>
       </c>
       <c r="I70" s="12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J70" s="12"/>
       <c r="K70" s="12"/>
@@ -4127,21 +4485,29 @@
         <v>0</v>
       </c>
       <c r="P70" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q70" s="12"/>
+        <v>173</v>
+      </c>
+      <c r="Q70" s="12" t="s">
+        <v>174</v>
+      </c>
       <c r="R70" s="12"/>
-      <c r="S70" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T70" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="U70" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S70" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="T70" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="U70" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V70" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="W70" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="9"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
@@ -4156,42 +4522,40 @@
       <c r="L71" s="12"/>
       <c r="M71" s="12"/>
       <c r="N71" s="12"/>
-      <c r="O71" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P71" s="12" t="s">
-        <v>117</v>
-      </c>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
       <c r="Q71" s="12"/>
       <c r="R71" s="12"/>
-      <c r="S71" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T71" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="U71" s="13" t="s">
-        <v>118</v>
+      <c r="S71" s="12"/>
+      <c r="T71" s="12"/>
+      <c r="U71" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="W71" s="13" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="9" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E72" s="12" t="n">
         <v>80</v>
       </c>
       <c r="F72" s="12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G72" s="12" t="n">
         <v>0</v>
@@ -4200,35 +4564,41 @@
         <v>0</v>
       </c>
       <c r="I72" s="12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J72" s="12"/>
       <c r="K72" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="M72" s="12"/>
-      <c r="N72" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="O72" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P72" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q72" s="12" t="s">
+        <v>183</v>
+      </c>
       <c r="R72" s="12"/>
-      <c r="S72" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T72" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="U72" s="13" t="s">
-        <v>167</v>
+      <c r="S72" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="T72" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="U72" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V72" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="W72" s="13" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4243,51 +4613,53 @@
       <c r="I73" s="12"/>
       <c r="J73" s="12"/>
       <c r="K73" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" s="12" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="M73" s="12"/>
       <c r="N73" s="12"/>
-      <c r="O73" s="12"/>
-      <c r="P73" s="12"/>
+      <c r="O73" s="14"/>
+      <c r="P73" s="14"/>
       <c r="Q73" s="12"/>
       <c r="R73" s="12"/>
-      <c r="S73" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T73" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="U73" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S73" s="12"/>
+      <c r="T73" s="12"/>
+      <c r="U73" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="W73" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="n">
-        <v>35</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>170</v>
+        <v>31</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>191</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E74" s="12" t="n">
         <v>80</v>
       </c>
       <c r="F74" s="12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G74" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" s="12" t="n">
         <v>4</v>
@@ -4297,159 +4669,193 @@
         <v>0</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="M74" s="12"/>
       <c r="N74" s="12"/>
-      <c r="O74" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P74" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q74" s="12"/>
+      <c r="O74" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q74" s="12" t="s">
+        <v>183</v>
+      </c>
       <c r="R74" s="12"/>
-      <c r="S74" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T74" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="U74" s="13" t="s">
-        <v>175</v>
+      <c r="S74" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="T74" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="U74" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V74" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="W74" s="13" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="9"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
       <c r="K75" s="12" t="n">
         <v>1</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="M75" s="12"/>
-      <c r="N75" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="O75" s="12"/>
-      <c r="P75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="14"/>
+      <c r="P75" s="14"/>
       <c r="Q75" s="12"/>
       <c r="R75" s="12"/>
-      <c r="S75" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T75" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="U75" s="13" t="s">
-        <v>179</v>
+      <c r="S75" s="12"/>
+      <c r="T75" s="12"/>
+      <c r="U75" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="W75" s="13" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="9"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
+      <c r="A76" s="9" t="n">
+        <v>32</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E76" s="12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F76" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G76" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H76" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J76" s="12"/>
       <c r="K76" s="12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L76" s="12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M76" s="12"/>
       <c r="N76" s="12"/>
-      <c r="O76" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="P76" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q76" s="12"/>
+      <c r="O76" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q76" s="12" t="s">
+        <v>183</v>
+      </c>
       <c r="R76" s="12"/>
-      <c r="S76" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="T76" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="U76" s="13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S76" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="T76" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="U76" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V76" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="W76" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="9"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
       <c r="K77" s="12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L77" s="12" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M77" s="12"/>
-      <c r="N77" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="O77" s="12"/>
-      <c r="P77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="14"/>
+      <c r="P77" s="14"/>
       <c r="Q77" s="12"/>
       <c r="R77" s="12"/>
-      <c r="S77" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="T77" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="U77" s="13" t="s">
-        <v>186</v>
+      <c r="S77" s="12"/>
+      <c r="T77" s="12"/>
+      <c r="U77" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="W77" s="13" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="9" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E78" s="12" t="n">
         <v>80</v>
       </c>
       <c r="F78" s="12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G78" s="12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H78" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" s="12" t="n">
         <v>4</v>
@@ -4459,26 +4865,24 @@
         <v>0</v>
       </c>
       <c r="L78" s="12" t="s">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="M78" s="12"/>
       <c r="N78" s="12"/>
-      <c r="O78" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P78" s="12" t="s">
-        <v>173</v>
-      </c>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
       <c r="Q78" s="12"/>
       <c r="R78" s="12"/>
-      <c r="S78" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T78" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="U78" s="13" t="s">
-        <v>175</v>
+      <c r="S78" s="12"/>
+      <c r="T78" s="12"/>
+      <c r="U78" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V78" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="W78" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4496,64 +4900,80 @@
         <v>1</v>
       </c>
       <c r="L79" s="12" t="s">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="M79" s="12"/>
-      <c r="N79" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="N79" s="12"/>
       <c r="O79" s="12"/>
       <c r="P79" s="12"/>
       <c r="Q79" s="12"/>
       <c r="R79" s="12"/>
-      <c r="S79" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T79" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="U79" s="13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="9"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
+      <c r="S79" s="12"/>
+      <c r="T79" s="12"/>
+      <c r="U79" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="W79" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="9" t="n">
+        <v>34</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" s="12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F80" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G80" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H80" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J80" s="12"/>
       <c r="K80" s="12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L80" s="12" t="s">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="M80" s="12"/>
       <c r="N80" s="12"/>
-      <c r="O80" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="P80" s="12" t="s">
-        <v>181</v>
-      </c>
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
       <c r="Q80" s="12"/>
       <c r="R80" s="12"/>
-      <c r="S80" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="T80" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="U80" s="13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S80" s="12"/>
+      <c r="T80" s="12"/>
+      <c r="U80" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V80" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W80" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="9"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -4565,53 +4985,53 @@
       <c r="I81" s="10"/>
       <c r="J81" s="10"/>
       <c r="K81" s="12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L81" s="12" t="s">
-        <v>184</v>
+        <v>33</v>
       </c>
       <c r="M81" s="12"/>
-      <c r="N81" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="N81" s="12"/>
       <c r="O81" s="12"/>
       <c r="P81" s="12"/>
       <c r="Q81" s="12"/>
       <c r="R81" s="12"/>
-      <c r="S81" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="T81" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="U81" s="13" t="s">
-        <v>186</v>
+      <c r="S81" s="12"/>
+      <c r="T81" s="12"/>
+      <c r="U81" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W81" s="13" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="9" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E82" s="12" t="n">
         <v>80</v>
       </c>
       <c r="F82" s="12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G82" s="12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H82" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" s="12" t="n">
         <v>4</v>
@@ -4621,26 +5041,24 @@
         <v>0</v>
       </c>
       <c r="L82" s="12" t="s">
-        <v>189</v>
+        <v>31</v>
       </c>
       <c r="M82" s="12"/>
       <c r="N82" s="12"/>
-      <c r="O82" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P82" s="12" t="s">
-        <v>173</v>
-      </c>
+      <c r="O82" s="12"/>
+      <c r="P82" s="12"/>
       <c r="Q82" s="12"/>
       <c r="R82" s="12"/>
-      <c r="S82" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T82" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="U82" s="13" t="s">
-        <v>175</v>
+      <c r="S82" s="12"/>
+      <c r="T82" s="12"/>
+      <c r="U82" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V82" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W82" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4658,64 +5076,86 @@
         <v>1</v>
       </c>
       <c r="L83" s="12" t="s">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="M83" s="12"/>
-      <c r="N83" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="N83" s="12"/>
       <c r="O83" s="12"/>
       <c r="P83" s="12"/>
       <c r="Q83" s="12"/>
       <c r="R83" s="12"/>
-      <c r="S83" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T83" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="U83" s="13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="9"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
+      <c r="S83" s="12"/>
+      <c r="T83" s="12"/>
+      <c r="U83" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="W83" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="9" t="n">
+        <v>36</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E84" s="12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F84" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G84" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J84" s="12"/>
       <c r="K84" s="12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L84" s="12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M84" s="12"/>
       <c r="N84" s="12"/>
       <c r="O84" s="12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P84" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q84" s="12"/>
+        <v>84</v>
+      </c>
+      <c r="Q84" s="12" t="s">
+        <v>157</v>
+      </c>
       <c r="R84" s="12"/>
-      <c r="S84" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="T84" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="U84" s="13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S84" s="12"/>
+      <c r="T84" s="12"/>
+      <c r="U84" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V84" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="W84" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="9"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -4727,47 +5167,47 @@
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
       <c r="K85" s="12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L85" s="12" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M85" s="12"/>
-      <c r="N85" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="N85" s="12"/>
       <c r="O85" s="12"/>
       <c r="P85" s="12"/>
       <c r="Q85" s="12"/>
       <c r="R85" s="12"/>
-      <c r="S85" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="T85" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="U85" s="13" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S85" s="12"/>
+      <c r="T85" s="12"/>
+      <c r="U85" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V85" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="W85" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="9" t="n">
-        <v>38</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>192</v>
+        <v>37</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>209</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>28</v>
+        <v>211</v>
       </c>
       <c r="E86" s="12" t="n">
-        <v>80</v>
+        <v>9615</v>
       </c>
       <c r="F86" s="12" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G86" s="12" t="n">
         <v>0</v>
@@ -4780,101 +5220,129 @@
       </c>
       <c r="J86" s="12"/>
       <c r="K86" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" s="12" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="M86" s="12"/>
-      <c r="N86" s="12"/>
+      <c r="N86" s="12" t="s">
+        <v>213</v>
+      </c>
       <c r="O86" s="12" t="n">
         <v>0</v>
       </c>
       <c r="P86" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q86" s="12"/>
+        <v>214</v>
+      </c>
+      <c r="Q86" s="12" t="s">
+        <v>97</v>
+      </c>
       <c r="R86" s="12"/>
-      <c r="S86" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T86" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="U86" s="13" t="s">
-        <v>175</v>
+      <c r="S86" s="12"/>
+      <c r="T86" s="12"/>
+      <c r="U86" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="W86" s="13" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="9"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="10"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
       <c r="K87" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L87" s="12" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="M87" s="12"/>
-      <c r="N87" s="12" t="s">
-        <v>177</v>
-      </c>
+      <c r="N87" s="12"/>
       <c r="O87" s="12"/>
       <c r="P87" s="12"/>
       <c r="Q87" s="12"/>
       <c r="R87" s="12"/>
-      <c r="S87" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T87" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="U87" s="13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="9"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="10"/>
-      <c r="J88" s="10"/>
+      <c r="S87" s="12"/>
+      <c r="T87" s="12"/>
+      <c r="U87" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V87" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="W87" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="9" t="n">
+        <v>38</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E88" s="12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F88" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="G88" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J88" s="12"/>
       <c r="K88" s="12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L88" s="12" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="M88" s="12"/>
       <c r="N88" s="12"/>
       <c r="O88" s="12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P88" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q88" s="12"/>
+        <v>222</v>
+      </c>
+      <c r="Q88" s="12" t="s">
+        <v>223</v>
+      </c>
       <c r="R88" s="12"/>
-      <c r="S88" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="T88" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="U88" s="13" t="s">
-        <v>183</v>
+      <c r="S88" s="12"/>
+      <c r="T88" s="12"/>
+      <c r="U88" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V88" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="W88" s="13" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4889,35 +5357,1099 @@
       <c r="I89" s="10"/>
       <c r="J89" s="10"/>
       <c r="K89" s="12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L89" s="12" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="M89" s="12"/>
       <c r="N89" s="12" t="s">
-        <v>177</v>
+        <v>227</v>
       </c>
       <c r="O89" s="12"/>
       <c r="P89" s="12"/>
       <c r="Q89" s="12"/>
       <c r="R89" s="12"/>
-      <c r="S89" s="13" t="n">
+      <c r="S89" s="12"/>
+      <c r="T89" s="12"/>
+      <c r="U89" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="W89" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="9"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="T89" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="U89" s="13" t="s">
-        <v>186</v>
+      <c r="L90" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="M90" s="12"/>
+      <c r="N90" s="12"/>
+      <c r="O90" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="P90" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q90" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="R90" s="12"/>
+      <c r="S90" s="12"/>
+      <c r="T90" s="12"/>
+      <c r="U90" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V90" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="W90" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="9"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L91" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="O91" s="12"/>
+      <c r="P91" s="12"/>
+      <c r="Q91" s="12"/>
+      <c r="R91" s="12"/>
+      <c r="S91" s="12"/>
+      <c r="T91" s="12"/>
+      <c r="U91" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V91" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="W91" s="13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="9" t="n">
+        <v>39</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E92" s="12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F92" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="G92" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="M92" s="12"/>
+      <c r="N92" s="12"/>
+      <c r="O92" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q92" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="R92" s="12"/>
+      <c r="S92" s="12"/>
+      <c r="T92" s="12"/>
+      <c r="U92" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V92" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="W92" s="13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="9"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="M93" s="12"/>
+      <c r="N93" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="O93" s="12"/>
+      <c r="P93" s="12"/>
+      <c r="Q93" s="12"/>
+      <c r="R93" s="12"/>
+      <c r="S93" s="12"/>
+      <c r="T93" s="12"/>
+      <c r="U93" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V93" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="W93" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="9"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="L94" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="M94" s="12"/>
+      <c r="N94" s="12"/>
+      <c r="O94" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="P94" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q94" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="R94" s="12"/>
+      <c r="S94" s="12"/>
+      <c r="T94" s="12"/>
+      <c r="U94" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V94" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="W94" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="9"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L95" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="M95" s="12"/>
+      <c r="N95" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="O95" s="12"/>
+      <c r="P95" s="12"/>
+      <c r="Q95" s="12"/>
+      <c r="R95" s="12"/>
+      <c r="S95" s="12"/>
+      <c r="T95" s="12"/>
+      <c r="U95" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V95" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="W95" s="13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E96" s="12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F96" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="G96" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="M96" s="12"/>
+      <c r="N96" s="12"/>
+      <c r="O96" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q96" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="R96" s="12"/>
+      <c r="S96" s="12"/>
+      <c r="T96" s="12"/>
+      <c r="U96" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V96" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="W96" s="13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="9"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="M97" s="12"/>
+      <c r="N97" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="O97" s="12"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="12"/>
+      <c r="R97" s="12"/>
+      <c r="S97" s="12"/>
+      <c r="T97" s="12"/>
+      <c r="U97" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V97" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="W97" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="9"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="L98" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="M98" s="12"/>
+      <c r="N98" s="12"/>
+      <c r="O98" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="P98" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q98" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="R98" s="12"/>
+      <c r="S98" s="12"/>
+      <c r="T98" s="12"/>
+      <c r="U98" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V98" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="W98" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="9"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L99" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="M99" s="12"/>
+      <c r="N99" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="O99" s="12"/>
+      <c r="P99" s="12"/>
+      <c r="Q99" s="12"/>
+      <c r="R99" s="12"/>
+      <c r="S99" s="12"/>
+      <c r="T99" s="12"/>
+      <c r="U99" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V99" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="W99" s="13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E100" s="12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F100" s="12" t="n">
+        <v>11</v>
+      </c>
+      <c r="G100" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J100" s="12"/>
+      <c r="K100" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="M100" s="12"/>
+      <c r="N100" s="12"/>
+      <c r="O100" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P100" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q100" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="R100" s="12"/>
+      <c r="S100" s="12"/>
+      <c r="T100" s="12"/>
+      <c r="U100" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V100" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="W100" s="13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="9"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="10"/>
+      <c r="K101" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="M101" s="12"/>
+      <c r="N101" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="O101" s="12"/>
+      <c r="P101" s="12"/>
+      <c r="Q101" s="12"/>
+      <c r="R101" s="12"/>
+      <c r="S101" s="12"/>
+      <c r="T101" s="12"/>
+      <c r="U101" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V101" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="W101" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="9"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="L102" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12"/>
+      <c r="O102" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="P102" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q102" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="R102" s="12"/>
+      <c r="S102" s="12"/>
+      <c r="T102" s="12"/>
+      <c r="U102" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V102" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="W102" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="9"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
+      <c r="K103" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L103" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="M103" s="12"/>
+      <c r="N103" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="O103" s="12"/>
+      <c r="P103" s="12"/>
+      <c r="Q103" s="12"/>
+      <c r="R103" s="12"/>
+      <c r="S103" s="12"/>
+      <c r="T103" s="12"/>
+      <c r="U103" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V103" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="W103" s="13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="9" t="n">
+        <v>42</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E104" s="12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F104" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="G104" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J104" s="12"/>
+      <c r="K104" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="M104" s="12"/>
+      <c r="N104" s="12"/>
+      <c r="O104" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P104" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q104" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="R104" s="12"/>
+      <c r="S104" s="12"/>
+      <c r="T104" s="12"/>
+      <c r="U104" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V104" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="W104" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="9"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="M105" s="12"/>
+      <c r="N105" s="12"/>
+      <c r="O105" s="12"/>
+      <c r="P105" s="12"/>
+      <c r="Q105" s="12"/>
+      <c r="R105" s="12"/>
+      <c r="S105" s="12"/>
+      <c r="T105" s="12"/>
+      <c r="U105" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V105" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="W105" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="9" t="n">
+        <v>43</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E106" s="12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F106" s="12" t="n">
+        <v>13</v>
+      </c>
+      <c r="G106" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="M106" s="12"/>
+      <c r="N106" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="O106" s="12"/>
+      <c r="P106" s="12"/>
+      <c r="Q106" s="12"/>
+      <c r="R106" s="12"/>
+      <c r="S106" s="12"/>
+      <c r="T106" s="12"/>
+      <c r="U106" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V106" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="W106" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="9"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="10"/>
+      <c r="J107" s="10"/>
+      <c r="K107" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="M107" s="12"/>
+      <c r="N107" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="O107" s="12"/>
+      <c r="P107" s="12"/>
+      <c r="Q107" s="12"/>
+      <c r="R107" s="12"/>
+      <c r="S107" s="12"/>
+      <c r="T107" s="12"/>
+      <c r="U107" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V107" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="W107" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="9" t="n">
+        <v>44</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E108" s="12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F108" s="12" t="n">
+        <v>14</v>
+      </c>
+      <c r="G108" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="M108" s="12"/>
+      <c r="N108" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="O108" s="12"/>
+      <c r="P108" s="12"/>
+      <c r="Q108" s="12"/>
+      <c r="R108" s="12"/>
+      <c r="S108" s="12"/>
+      <c r="T108" s="12"/>
+      <c r="U108" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V108" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="W108" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="9"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="M109" s="12"/>
+      <c r="N109" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="O109" s="12"/>
+      <c r="P109" s="12"/>
+      <c r="Q109" s="12"/>
+      <c r="R109" s="12"/>
+      <c r="S109" s="12"/>
+      <c r="T109" s="12"/>
+      <c r="U109" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V109" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="W109" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="9" t="n">
+        <v>45</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E110" s="12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F110" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="G110" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="M110" s="12"/>
+      <c r="N110" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="O110" s="12"/>
+      <c r="P110" s="12"/>
+      <c r="Q110" s="12"/>
+      <c r="R110" s="12"/>
+      <c r="S110" s="12"/>
+      <c r="T110" s="12"/>
+      <c r="U110" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V110" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="W110" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="9"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="10"/>
+      <c r="K111" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="M111" s="12"/>
+      <c r="N111" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="O111" s="12"/>
+      <c r="P111" s="12"/>
+      <c r="Q111" s="12"/>
+      <c r="R111" s="12"/>
+      <c r="S111" s="12"/>
+      <c r="T111" s="12"/>
+      <c r="U111" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V111" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="W111" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="9" t="n">
+        <v>46</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E112" s="12" t="n">
+        <v>80</v>
+      </c>
+      <c r="F112" s="12" t="n">
+        <v>16</v>
+      </c>
+      <c r="G112" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J112" s="12"/>
+      <c r="K112" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="M112" s="12"/>
+      <c r="N112" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="O112" s="12"/>
+      <c r="P112" s="12"/>
+      <c r="Q112" s="12"/>
+      <c r="R112" s="12"/>
+      <c r="S112" s="12"/>
+      <c r="T112" s="12"/>
+      <c r="U112" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V112" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="W112" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="9"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="10"/>
+      <c r="K113" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="M113" s="12"/>
+      <c r="N113" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="O113" s="12"/>
+      <c r="P113" s="12"/>
+      <c r="Q113" s="12"/>
+      <c r="R113" s="12"/>
+      <c r="S113" s="12"/>
+      <c r="T113" s="12"/>
+      <c r="U113" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V113" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="W113" s="13" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="568">
+  <mergeCells count="858">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="U2:W2"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -4932,6 +6464,8 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
@@ -4946,6 +6480,8 @@
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="Q6:Q7"/>
     <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
@@ -4960,6 +6496,8 @@
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
@@ -4974,6 +6512,8 @@
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="Q10:Q11"/>
     <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
@@ -4988,6 +6528,12 @@
     <mergeCell ref="L12:L13"/>
     <mergeCell ref="M12:M13"/>
     <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C14:C16"/>
@@ -5006,6 +6552,8 @@
     <mergeCell ref="P14:P16"/>
     <mergeCell ref="Q14:Q16"/>
     <mergeCell ref="R14:R16"/>
+    <mergeCell ref="S14:S16"/>
+    <mergeCell ref="T14:T16"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
@@ -5016,14 +6564,12 @@
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
     <mergeCell ref="O18:O19"/>
     <mergeCell ref="P18:P19"/>
     <mergeCell ref="Q18:Q19"/>
     <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="T18:T19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
@@ -5034,10 +6580,16 @@
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="I20:I21"/>
     <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
     <mergeCell ref="O20:O21"/>
     <mergeCell ref="P20:P21"/>
     <mergeCell ref="Q20:Q21"/>
     <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="T20:T21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
@@ -5048,70 +6600,80 @@
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="I22:I23"/>
     <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
     <mergeCell ref="O22:O23"/>
     <mergeCell ref="P22:P23"/>
     <mergeCell ref="Q22:Q23"/>
     <mergeCell ref="R22:R23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="O24:O26"/>
-    <mergeCell ref="P24:P26"/>
-    <mergeCell ref="Q24:Q26"/>
-    <mergeCell ref="R24:R26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="R31:R32"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="O30:O32"/>
+    <mergeCell ref="P30:P32"/>
+    <mergeCell ref="Q30:Q32"/>
+    <mergeCell ref="R30:R32"/>
+    <mergeCell ref="S30:S32"/>
+    <mergeCell ref="T30:T32"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:C34"/>
@@ -5126,6 +6688,8 @@
     <mergeCell ref="P33:P34"/>
     <mergeCell ref="Q33:Q34"/>
     <mergeCell ref="R33:R34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="T33:T34"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="C35:C36"/>
@@ -5136,14 +6700,12 @@
     <mergeCell ref="H35:H36"/>
     <mergeCell ref="I35:I36"/>
     <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="N35:N36"/>
     <mergeCell ref="O35:O36"/>
     <mergeCell ref="P35:P36"/>
     <mergeCell ref="Q35:Q36"/>
     <mergeCell ref="R35:R36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:T36"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="C37:C38"/>
@@ -5154,10 +6716,12 @@
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="I37:I38"/>
     <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="R37:R38"/>
+    <mergeCell ref="S37:S38"/>
+    <mergeCell ref="T37:T38"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:C40"/>
@@ -5172,6 +6736,8 @@
     <mergeCell ref="P39:P40"/>
     <mergeCell ref="Q39:Q40"/>
     <mergeCell ref="R39:R40"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="T39:T40"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="C41:C42"/>
@@ -5186,188 +6752,222 @@
     <mergeCell ref="L41:L42"/>
     <mergeCell ref="M41:M42"/>
     <mergeCell ref="N41:N42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="R45:R46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="R47:R48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="R49:R50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="R51:R52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="Q53:Q54"/>
-    <mergeCell ref="R53:R54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="R55:R56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="P57:P58"/>
-    <mergeCell ref="Q57:Q58"/>
-    <mergeCell ref="R57:R58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="P59:P60"/>
-    <mergeCell ref="Q59:Q60"/>
-    <mergeCell ref="R59:R60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="O61:O62"/>
-    <mergeCell ref="P61:P62"/>
-    <mergeCell ref="Q61:Q62"/>
-    <mergeCell ref="R61:R62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="P63:P64"/>
-    <mergeCell ref="Q63:Q64"/>
-    <mergeCell ref="R63:R64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="J65:J67"/>
-    <mergeCell ref="O65:O67"/>
-    <mergeCell ref="P65:P67"/>
-    <mergeCell ref="Q65:Q67"/>
-    <mergeCell ref="R65:R67"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="R41:R42"/>
+    <mergeCell ref="S41:S42"/>
+    <mergeCell ref="T41:T42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="O43:O45"/>
+    <mergeCell ref="P43:P45"/>
+    <mergeCell ref="Q43:Q45"/>
+    <mergeCell ref="R43:R45"/>
+    <mergeCell ref="S43:S45"/>
+    <mergeCell ref="T43:T45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="P46:P47"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="R46:R47"/>
+    <mergeCell ref="S46:S47"/>
+    <mergeCell ref="T46:T47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="O48:O49"/>
+    <mergeCell ref="P48:P49"/>
+    <mergeCell ref="Q48:Q49"/>
+    <mergeCell ref="R48:R49"/>
+    <mergeCell ref="S48:S49"/>
+    <mergeCell ref="T48:T49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="N50:N51"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="R50:R51"/>
+    <mergeCell ref="S50:S51"/>
+    <mergeCell ref="T50:T51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="R52:R53"/>
+    <mergeCell ref="S52:S53"/>
+    <mergeCell ref="T52:T53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="R54:R55"/>
+    <mergeCell ref="S54:S55"/>
+    <mergeCell ref="T54:T55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="R56:R57"/>
+    <mergeCell ref="S56:S57"/>
+    <mergeCell ref="T56:T57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="N58:N59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="R58:R59"/>
+    <mergeCell ref="S58:S59"/>
+    <mergeCell ref="T58:T59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="N60:N61"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="R60:R61"/>
+    <mergeCell ref="S60:S61"/>
+    <mergeCell ref="T60:T61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="R62:R63"/>
+    <mergeCell ref="S62:S63"/>
+    <mergeCell ref="T62:T63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="R64:R65"/>
+    <mergeCell ref="S64:S65"/>
+    <mergeCell ref="T64:T65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="R66:R67"/>
+    <mergeCell ref="S66:S67"/>
+    <mergeCell ref="T66:T67"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="B68:B69"/>
     <mergeCell ref="C68:C69"/>
@@ -5378,10 +6978,16 @@
     <mergeCell ref="H68:H69"/>
     <mergeCell ref="I68:I69"/>
     <mergeCell ref="J68:J69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="N68:N69"/>
     <mergeCell ref="O68:O69"/>
     <mergeCell ref="P68:P69"/>
     <mergeCell ref="Q68:Q69"/>
     <mergeCell ref="R68:R69"/>
+    <mergeCell ref="S68:S69"/>
+    <mergeCell ref="T68:T69"/>
     <mergeCell ref="A70:A71"/>
     <mergeCell ref="B70:B71"/>
     <mergeCell ref="C70:C71"/>
@@ -5396,6 +7002,12 @@
     <mergeCell ref="L70:L71"/>
     <mergeCell ref="M70:M71"/>
     <mergeCell ref="N70:N71"/>
+    <mergeCell ref="O70:O71"/>
+    <mergeCell ref="P70:P71"/>
+    <mergeCell ref="Q70:Q71"/>
+    <mergeCell ref="R70:R71"/>
+    <mergeCell ref="S70:S71"/>
+    <mergeCell ref="T70:T71"/>
     <mergeCell ref="A72:A73"/>
     <mergeCell ref="B72:B73"/>
     <mergeCell ref="C72:C73"/>
@@ -5410,78 +7022,288 @@
     <mergeCell ref="P72:P73"/>
     <mergeCell ref="Q72:Q73"/>
     <mergeCell ref="R72:R73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="F74:F77"/>
-    <mergeCell ref="G74:G77"/>
-    <mergeCell ref="H74:H77"/>
-    <mergeCell ref="I74:I77"/>
-    <mergeCell ref="J74:J77"/>
+    <mergeCell ref="S72:S73"/>
+    <mergeCell ref="T72:T73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="J74:J75"/>
     <mergeCell ref="O74:O75"/>
     <mergeCell ref="P74:P75"/>
     <mergeCell ref="Q74:Q75"/>
     <mergeCell ref="R74:R75"/>
+    <mergeCell ref="S74:S75"/>
+    <mergeCell ref="T74:T75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="J76:J77"/>
     <mergeCell ref="O76:O77"/>
     <mergeCell ref="P76:P77"/>
     <mergeCell ref="Q76:Q77"/>
     <mergeCell ref="R76:R77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="H78:H81"/>
-    <mergeCell ref="I78:I81"/>
-    <mergeCell ref="J78:J81"/>
+    <mergeCell ref="S76:S77"/>
+    <mergeCell ref="T76:T77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="J78:J79"/>
     <mergeCell ref="O78:O79"/>
     <mergeCell ref="P78:P79"/>
     <mergeCell ref="Q78:Q79"/>
     <mergeCell ref="R78:R79"/>
+    <mergeCell ref="S78:S79"/>
+    <mergeCell ref="T78:T79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="J80:J81"/>
     <mergeCell ref="O80:O81"/>
     <mergeCell ref="P80:P81"/>
     <mergeCell ref="Q80:Q81"/>
     <mergeCell ref="R80:R81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="F82:F85"/>
-    <mergeCell ref="G82:G85"/>
-    <mergeCell ref="H82:H85"/>
-    <mergeCell ref="I82:I85"/>
-    <mergeCell ref="J82:J85"/>
+    <mergeCell ref="S80:S81"/>
+    <mergeCell ref="T80:T81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="J82:J83"/>
     <mergeCell ref="O82:O83"/>
     <mergeCell ref="P82:P83"/>
     <mergeCell ref="Q82:Q83"/>
     <mergeCell ref="R82:R83"/>
+    <mergeCell ref="S82:S83"/>
+    <mergeCell ref="T82:T83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="J84:J85"/>
     <mergeCell ref="O84:O85"/>
     <mergeCell ref="P84:P85"/>
     <mergeCell ref="Q84:Q85"/>
     <mergeCell ref="R84:R85"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="F86:F89"/>
-    <mergeCell ref="G86:G89"/>
-    <mergeCell ref="H86:H89"/>
-    <mergeCell ref="I86:I89"/>
-    <mergeCell ref="J86:J89"/>
+    <mergeCell ref="S84:S85"/>
+    <mergeCell ref="T84:T85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="I86:I87"/>
+    <mergeCell ref="J86:J87"/>
     <mergeCell ref="O86:O87"/>
     <mergeCell ref="P86:P87"/>
     <mergeCell ref="Q86:Q87"/>
     <mergeCell ref="R86:R87"/>
+    <mergeCell ref="S86:S87"/>
+    <mergeCell ref="T86:T87"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="E88:E91"/>
+    <mergeCell ref="F88:F91"/>
+    <mergeCell ref="G88:G91"/>
+    <mergeCell ref="H88:H91"/>
+    <mergeCell ref="I88:I91"/>
+    <mergeCell ref="J88:J91"/>
     <mergeCell ref="O88:O89"/>
     <mergeCell ref="P88:P89"/>
     <mergeCell ref="Q88:Q89"/>
     <mergeCell ref="R88:R89"/>
+    <mergeCell ref="S88:S89"/>
+    <mergeCell ref="T88:T89"/>
+    <mergeCell ref="O90:O91"/>
+    <mergeCell ref="P90:P91"/>
+    <mergeCell ref="Q90:Q91"/>
+    <mergeCell ref="R90:R91"/>
+    <mergeCell ref="S90:S91"/>
+    <mergeCell ref="T90:T91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="F92:F95"/>
+    <mergeCell ref="G92:G95"/>
+    <mergeCell ref="H92:H95"/>
+    <mergeCell ref="I92:I95"/>
+    <mergeCell ref="J92:J95"/>
+    <mergeCell ref="O92:O93"/>
+    <mergeCell ref="P92:P93"/>
+    <mergeCell ref="Q92:Q93"/>
+    <mergeCell ref="R92:R93"/>
+    <mergeCell ref="S92:S93"/>
+    <mergeCell ref="T92:T93"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
+    <mergeCell ref="Q94:Q95"/>
+    <mergeCell ref="R94:R95"/>
+    <mergeCell ref="S94:S95"/>
+    <mergeCell ref="T94:T95"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="E96:E99"/>
+    <mergeCell ref="F96:F99"/>
+    <mergeCell ref="G96:G99"/>
+    <mergeCell ref="H96:H99"/>
+    <mergeCell ref="I96:I99"/>
+    <mergeCell ref="J96:J99"/>
+    <mergeCell ref="O96:O97"/>
+    <mergeCell ref="P96:P97"/>
+    <mergeCell ref="Q96:Q97"/>
+    <mergeCell ref="R96:R97"/>
+    <mergeCell ref="S96:S97"/>
+    <mergeCell ref="T96:T97"/>
+    <mergeCell ref="O98:O99"/>
+    <mergeCell ref="P98:P99"/>
+    <mergeCell ref="Q98:Q99"/>
+    <mergeCell ref="R98:R99"/>
+    <mergeCell ref="S98:S99"/>
+    <mergeCell ref="T98:T99"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="E100:E103"/>
+    <mergeCell ref="F100:F103"/>
+    <mergeCell ref="G100:G103"/>
+    <mergeCell ref="H100:H103"/>
+    <mergeCell ref="I100:I103"/>
+    <mergeCell ref="J100:J103"/>
+    <mergeCell ref="O100:O101"/>
+    <mergeCell ref="P100:P101"/>
+    <mergeCell ref="Q100:Q101"/>
+    <mergeCell ref="R100:R101"/>
+    <mergeCell ref="S100:S101"/>
+    <mergeCell ref="T100:T101"/>
+    <mergeCell ref="O102:O103"/>
+    <mergeCell ref="P102:P103"/>
+    <mergeCell ref="Q102:Q103"/>
+    <mergeCell ref="R102:R103"/>
+    <mergeCell ref="S102:S103"/>
+    <mergeCell ref="T102:T103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="J104:J105"/>
+    <mergeCell ref="O104:O105"/>
+    <mergeCell ref="P104:P105"/>
+    <mergeCell ref="Q104:Q105"/>
+    <mergeCell ref="R104:R105"/>
+    <mergeCell ref="S104:S105"/>
+    <mergeCell ref="T104:T105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="I106:I107"/>
+    <mergeCell ref="J106:J107"/>
+    <mergeCell ref="O106:O107"/>
+    <mergeCell ref="P106:P107"/>
+    <mergeCell ref="Q106:Q107"/>
+    <mergeCell ref="R106:R107"/>
+    <mergeCell ref="S106:S107"/>
+    <mergeCell ref="T106:T107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="O108:O109"/>
+    <mergeCell ref="P108:P109"/>
+    <mergeCell ref="Q108:Q109"/>
+    <mergeCell ref="R108:R109"/>
+    <mergeCell ref="S108:S109"/>
+    <mergeCell ref="T108:T109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="H110:H111"/>
+    <mergeCell ref="I110:I111"/>
+    <mergeCell ref="J110:J111"/>
+    <mergeCell ref="O110:O111"/>
+    <mergeCell ref="P110:P111"/>
+    <mergeCell ref="Q110:Q111"/>
+    <mergeCell ref="R110:R111"/>
+    <mergeCell ref="S110:S111"/>
+    <mergeCell ref="T110:T111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="H112:H113"/>
+    <mergeCell ref="I112:I113"/>
+    <mergeCell ref="J112:J113"/>
+    <mergeCell ref="O112:O113"/>
+    <mergeCell ref="P112:P113"/>
+    <mergeCell ref="Q112:Q113"/>
+    <mergeCell ref="R112:R113"/>
+    <mergeCell ref="S112:S113"/>
+    <mergeCell ref="T112:T113"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5500,7 +7322,7 @@
   </sheetPr>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -5513,120 +7335,120 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
-      <c r="B1" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="22"/>
+      <c r="B1" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="21"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
-      <c r="B5" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="22"/>
+      <c r="B5" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="21"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="25"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="28"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="27"/>
       <c r="K7" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>200</v>
+        <v>263</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>201</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5634,7 +7456,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>202</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5642,7 +7464,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -5663,7 +7485,7 @@
   </sheetPr>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="B65"/>
     </sheetView>
   </sheetViews>
@@ -5706,12 +7528,12 @@
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>204</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>205</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5719,7 +7541,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>206</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5727,7 +7549,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>207</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5735,7 +7557,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>208</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5743,7 +7565,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
-        <v>209</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5751,7 +7573,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5759,7 +7581,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
-        <v>211</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5767,7 +7589,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="s">
-        <v>212</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5775,7 +7597,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>213</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5795,7 +7617,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>214</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5806,7 +7628,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
-        <v>215</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5814,7 +7636,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>216</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5822,7 +7644,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
-        <v>217</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5830,7 +7652,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="12" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5838,7 +7660,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="s">
-        <v>219</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5846,7 +7668,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="12" t="s">
-        <v>220</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5854,7 +7676,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="s">
-        <v>221</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5862,7 +7684,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="12" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5870,7 +7692,7 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="s">
-        <v>223</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5878,7 +7700,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
-        <v>224</v>
+        <v>286</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5886,7 +7708,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="s">
-        <v>225</v>
+        <v>287</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5894,7 +7716,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="10" t="s">
-        <v>226</v>
+        <v>288</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5902,10 +7724,10 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="12" t="s">
-        <v>227</v>
+        <v>289</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>228</v>
+        <v>290</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5913,7 +7735,7 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="12" t="s">
-        <v>229</v>
+        <v>291</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5921,7 +7743,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="12" t="s">
-        <v>230</v>
+        <v>292</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5929,21 +7751,21 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
-        <v>231</v>
+        <v>293</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="10"/>
       <c r="B68" s="0" t="s">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="10" t="s">
-        <v>234</v>
+        <v>296</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5951,7 +7773,7 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="10" t="s">
-        <v>235</v>
+        <v>297</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5959,7 +7781,7 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="10" t="s">
-        <v>236</v>
+        <v>298</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5967,7 +7789,7 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="s">
-        <v>237</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5981,7 +7803,7 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="10" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5995,7 +7817,7 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="10" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6009,7 +7831,7 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="10" t="s">
-        <v>240</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6023,40 +7845,40 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="12" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="12"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="30" t="s">
-        <v>242</v>
+      <c r="A93" s="29" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="30"/>
+      <c r="A94" s="29"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="19"/>
+      <c r="A95" s="18"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="23"/>
+      <c r="A96" s="22"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="26"/>
+      <c r="A97" s="25"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="29"/>
+      <c r="A98" s="28"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="19"/>
+      <c r="A99" s="18"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="23"/>
+      <c r="A100" s="22"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="26"/>
+      <c r="A101" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="34">
